--- a/reports/For The Week Ending (Prior Year)_PayrollHistory.xlsx
+++ b/reports/For The Week Ending (Prior Year)_PayrollHistory.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>department</t>
   </si>
@@ -58,9 +58,6 @@
     <t>D3000</t>
   </si>
   <si>
-    <t>D4053</t>
-  </si>
-  <si>
     <t>D4054</t>
   </si>
   <si>
@@ -107,9 +104,6 @@
   </si>
   <si>
     <t>D6720</t>
-  </si>
-  <si>
-    <t>D6721</t>
   </si>
   <si>
     <t>D6730</t>
@@ -505,14 +499,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -536,7 +530,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>12085.18</v>
+        <v>6985.53</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -544,7 +538,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>4488.63</v>
+        <v>4233.73</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -552,7 +546,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>1499.88</v>
+        <v>3492.81</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -560,7 +554,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>1086.78</v>
+        <v>1389.70</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -568,7 +562,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>3730.75</v>
+        <v>3825.27</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -576,7 +570,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>1678.16</v>
+        <v>1609.87</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -584,7 +578,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>6382.61</v>
+        <v>6423.09</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -592,7 +586,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>1806.16</v>
+        <v>1580.49</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -600,7 +594,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>5876.84</v>
+        <v>7574.53</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -608,7 +602,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>512.26</v>
+        <v>729.29</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -616,7 +610,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>2004.90</v>
+        <v>1829.05</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -624,7 +618,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>228.37</v>
+        <v>1609.05</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -632,7 +626,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>1703.94</v>
+        <v>1195.79</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -640,7 +634,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>1153.80</v>
+        <v>3106.52</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -648,7 +642,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>3106.52</v>
+        <v>1185.41</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -656,7 +650,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="2">
-        <v>902.35</v>
+        <v>353.19</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -664,7 +658,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>451.72</v>
+        <v>906.83</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -672,7 +666,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="2">
-        <v>255.40</v>
+        <v>638.43</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -680,7 +674,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>1011.04</v>
+        <v>2601.76</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -688,7 +682,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>2201.46</v>
+        <v>641.55</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -696,7 +690,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2">
-        <v>268.99</v>
+        <v>391.76</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -704,7 +698,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="2">
-        <v>391.76</v>
+        <v>1157.02</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -712,7 +706,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="2">
-        <v>1157.02</v>
+        <v>3451.45</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -720,7 +714,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="2">
-        <v>2848.38</v>
+        <v>1035.46</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -728,7 +722,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="2">
-        <v>1215.20</v>
+        <v>2938.08</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -736,7 +730,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="2">
-        <v>2907.90</v>
+        <v>709.24</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -744,7 +738,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="2">
-        <v>709.24</v>
+        <v>761.84</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -752,7 +746,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="2">
-        <v>1031.52</v>
+        <v>344.95</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -760,7 +754,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="2">
-        <v>155.89</v>
+        <v>1689.53</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -768,7 +762,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="2">
-        <v>355.95</v>
+        <v>2232.92</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -776,7 +770,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="2">
-        <v>1717.99</v>
+        <v>1642.67</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -784,7 +778,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="2">
-        <v>2044.78</v>
+        <v>335.99</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -792,7 +786,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="2">
-        <v>1258.19</v>
+        <v>449.24</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -800,7 +794,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="2">
-        <v>267.28</v>
+        <v>1249.22</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -808,7 +802,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="2">
-        <v>485.41</v>
+        <v>2240.76</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -816,7 +810,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="2">
-        <v>1257.75</v>
+        <v>1636.15</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -824,7 +818,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="2">
-        <v>2240.76</v>
+        <v>360.44</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -832,23 +826,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="2">
-        <v>1426.31</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="2">
-        <v>360.44</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="2">
-        <v>495.43</v>
+        <v>646.86</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For The Week Ending (Prior Year)_PayrollHistory.xlsx
+++ b/reports/For The Week Ending (Prior Year)_PayrollHistory.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>department</t>
   </si>
@@ -52,46 +52,37 @@
     <t>D2000</t>
   </si>
   <si>
-    <t>D2200</t>
-  </si>
-  <si>
     <t>D3000</t>
   </si>
   <si>
-    <t>D4054</t>
-  </si>
-  <si>
-    <t>D4055</t>
+    <t>D3050</t>
+  </si>
+  <si>
+    <t>D4031</t>
+  </si>
+  <si>
+    <t>D4032</t>
+  </si>
+  <si>
+    <t>D4034</t>
   </si>
   <si>
     <t>D5000</t>
   </si>
   <si>
-    <t>D5201</t>
-  </si>
-  <si>
-    <t>D5202</t>
-  </si>
-  <si>
-    <t>D5206</t>
-  </si>
-  <si>
-    <t>D5207</t>
-  </si>
-  <si>
-    <t>D5208</t>
-  </si>
-  <si>
-    <t>D5209</t>
-  </si>
-  <si>
-    <t>D5810</t>
+    <t>D5110</t>
+  </si>
+  <si>
+    <t>D5111</t>
+  </si>
+  <si>
+    <t>D5112</t>
   </si>
   <si>
     <t>D5820</t>
   </si>
   <si>
-    <t>D6212</t>
+    <t>D6030</t>
   </si>
   <si>
     <t>D6215</t>
@@ -100,16 +91,16 @@
     <t>D6700</t>
   </si>
   <si>
-    <t>D6710</t>
-  </si>
-  <si>
-    <t>D6720</t>
+    <t>D6721</t>
   </si>
   <si>
     <t>D6730</t>
   </si>
   <si>
-    <t>D6750</t>
+    <t>D6740</t>
+  </si>
+  <si>
+    <t>D6760</t>
   </si>
   <si>
     <t>D6780</t>
@@ -118,12 +109,12 @@
     <t>D6790</t>
   </si>
   <si>
-    <t>D7000</t>
-  </si>
-  <si>
     <t>D7010</t>
   </si>
   <si>
+    <t>D8010</t>
+  </si>
+  <si>
     <t>D8020</t>
   </si>
   <si>
@@ -137,6 +128,9 @@
   </si>
   <si>
     <t>D8060</t>
+  </si>
+  <si>
+    <t>D9007</t>
   </si>
 </sst>
 </file>
@@ -499,7 +493,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,7 +516,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>580.08</v>
+        <v>1794.54</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -530,7 +524,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>6985.53</v>
+        <v>7960.93</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -538,7 +532,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>4233.73</v>
+        <v>2338.31</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -546,7 +540,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>3492.81</v>
+        <v>4637.57</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -554,7 +548,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>1389.70</v>
+        <v>977.61</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -562,7 +556,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>3825.27</v>
+        <v>2266.83</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -570,7 +564,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>1609.87</v>
+        <v>1547.32</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -578,7 +572,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>6423.09</v>
+        <v>4558.19</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -586,7 +580,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>1580.49</v>
+        <v>3074.49</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -594,7 +588,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>7574.53</v>
+        <v>4141.26</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -602,7 +596,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>729.29</v>
+        <v>3998.17</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -610,7 +604,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>1829.05</v>
+        <v>645.99</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -618,7 +612,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>1609.05</v>
+        <v>363.94</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -626,7 +620,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>1195.79</v>
+        <v>2127.75</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -634,7 +628,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>3106.52</v>
+        <v>401.65</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -642,7 +636,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>1185.41</v>
+        <v>1857.06</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -650,7 +644,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="2">
-        <v>353.19</v>
+        <v>1344.35</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -658,7 +652,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>906.83</v>
+        <v>2894.53</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -666,7 +660,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="2">
-        <v>638.43</v>
+        <v>631.50</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -674,7 +668,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>2601.76</v>
+        <v>119.70</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -682,7 +676,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>641.55</v>
+        <v>992.38</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -690,7 +684,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2">
-        <v>391.76</v>
+        <v>623.48</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -698,7 +692,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="2">
-        <v>1157.02</v>
+        <v>417.16</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -706,7 +700,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="2">
-        <v>3451.45</v>
+        <v>1102.00</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -714,7 +708,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="2">
-        <v>1035.46</v>
+        <v>848.02</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -722,7 +716,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="2">
-        <v>2938.08</v>
+        <v>1387.35</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -730,7 +724,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="2">
-        <v>709.24</v>
+        <v>1323.88</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -738,7 +732,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="2">
-        <v>761.84</v>
+        <v>783.56</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -746,7 +740,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="2">
-        <v>344.95</v>
+        <v>512.22</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -754,7 +748,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="2">
-        <v>1689.53</v>
+        <v>604.40</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -762,7 +756,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="2">
-        <v>2232.92</v>
+        <v>1862.08</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -770,7 +764,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="2">
-        <v>1642.67</v>
+        <v>1673.40</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -778,7 +772,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="2">
-        <v>335.99</v>
+        <v>1538.46</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -786,7 +780,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="2">
-        <v>449.24</v>
+        <v>1181.58</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -794,7 +788,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="2">
-        <v>1249.22</v>
+        <v>626.00</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -802,7 +796,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="2">
-        <v>2240.76</v>
+        <v>1289.81</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -810,23 +804,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="2">
-        <v>1636.15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" s="2">
-        <v>360.44</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="2">
-        <v>646.86</v>
+        <v>1019.84</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For The Week Ending (Prior Year)_PayrollHistory.xlsx
+++ b/reports/For The Week Ending (Prior Year)_PayrollHistory.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>department</t>
   </si>
@@ -52,37 +52,46 @@
     <t>D2000</t>
   </si>
   <si>
+    <t>D2200</t>
+  </si>
+  <si>
     <t>D3000</t>
   </si>
   <si>
-    <t>D3050</t>
-  </si>
-  <si>
-    <t>D4031</t>
-  </si>
-  <si>
-    <t>D4032</t>
-  </si>
-  <si>
-    <t>D4034</t>
+    <t>D4054</t>
+  </si>
+  <si>
+    <t>D4055</t>
   </si>
   <si>
     <t>D5000</t>
   </si>
   <si>
-    <t>D5110</t>
-  </si>
-  <si>
-    <t>D5111</t>
-  </si>
-  <si>
-    <t>D5112</t>
+    <t>D5201</t>
+  </si>
+  <si>
+    <t>D5202</t>
+  </si>
+  <si>
+    <t>D5206</t>
+  </si>
+  <si>
+    <t>D5207</t>
+  </si>
+  <si>
+    <t>D5208</t>
+  </si>
+  <si>
+    <t>D5209</t>
+  </si>
+  <si>
+    <t>D5810</t>
   </si>
   <si>
     <t>D5820</t>
   </si>
   <si>
-    <t>D6030</t>
+    <t>D6212</t>
   </si>
   <si>
     <t>D6215</t>
@@ -91,16 +100,16 @@
     <t>D6700</t>
   </si>
   <si>
-    <t>D6721</t>
+    <t>D6710</t>
+  </si>
+  <si>
+    <t>D6720</t>
   </si>
   <si>
     <t>D6730</t>
   </si>
   <si>
-    <t>D6740</t>
-  </si>
-  <si>
-    <t>D6760</t>
+    <t>D6750</t>
   </si>
   <si>
     <t>D6780</t>
@@ -109,12 +118,12 @@
     <t>D6790</t>
   </si>
   <si>
+    <t>D7000</t>
+  </si>
+  <si>
     <t>D7010</t>
   </si>
   <si>
-    <t>D8010</t>
-  </si>
-  <si>
     <t>D8020</t>
   </si>
   <si>
@@ -128,9 +137,6 @@
   </si>
   <si>
     <t>D8060</t>
-  </si>
-  <si>
-    <t>D9007</t>
   </si>
 </sst>
 </file>
@@ -493,7 +499,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,7 +522,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>1794.54</v>
+        <v>580.08</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -524,7 +530,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>7960.93</v>
+        <v>6985.53</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -532,7 +538,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>2338.31</v>
+        <v>4233.73</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -540,7 +546,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>4637.57</v>
+        <v>3492.81</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -548,7 +554,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>977.61</v>
+        <v>1389.70</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -556,7 +562,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>2266.83</v>
+        <v>3825.27</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -564,7 +570,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>1547.32</v>
+        <v>1609.87</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -572,7 +578,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>4558.19</v>
+        <v>6423.09</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -580,7 +586,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>3074.49</v>
+        <v>1580.49</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -588,7 +594,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>4141.26</v>
+        <v>7574.53</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -596,7 +602,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>3998.17</v>
+        <v>729.29</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -604,7 +610,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>645.99</v>
+        <v>1829.05</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -612,7 +618,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>363.94</v>
+        <v>1609.05</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -620,7 +626,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>2127.75</v>
+        <v>1195.79</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -628,7 +634,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>401.65</v>
+        <v>3106.52</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -636,7 +642,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>1857.06</v>
+        <v>1185.41</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -644,7 +650,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="2">
-        <v>1344.35</v>
+        <v>353.19</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -652,7 +658,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>2894.53</v>
+        <v>906.83</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -660,7 +666,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="2">
-        <v>631.50</v>
+        <v>638.43</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -668,7 +674,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>119.70</v>
+        <v>2601.76</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -676,7 +682,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>992.38</v>
+        <v>641.55</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -684,7 +690,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2">
-        <v>623.48</v>
+        <v>391.76</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -692,7 +698,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="2">
-        <v>417.16</v>
+        <v>1157.02</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -700,7 +706,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="2">
-        <v>1102.00</v>
+        <v>3451.45</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -708,7 +714,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="2">
-        <v>848.02</v>
+        <v>1035.46</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -716,7 +722,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="2">
-        <v>1387.35</v>
+        <v>2938.08</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -724,7 +730,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="2">
-        <v>1323.88</v>
+        <v>709.24</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -732,7 +738,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="2">
-        <v>783.56</v>
+        <v>761.84</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -740,7 +746,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="2">
-        <v>512.22</v>
+        <v>344.95</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -748,7 +754,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="2">
-        <v>604.40</v>
+        <v>1689.53</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -756,7 +762,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="2">
-        <v>1862.08</v>
+        <v>2232.92</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -764,7 +770,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="2">
-        <v>1673.40</v>
+        <v>1642.67</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -772,7 +778,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="2">
-        <v>1538.46</v>
+        <v>335.99</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -780,7 +786,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="2">
-        <v>1181.58</v>
+        <v>449.24</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -788,7 +794,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="2">
-        <v>626.00</v>
+        <v>1249.22</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -796,7 +802,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="2">
-        <v>1289.81</v>
+        <v>2240.76</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -804,7 +810,23 @@
         <v>38</v>
       </c>
       <c r="B38" s="2">
-        <v>1019.84</v>
+        <v>1636.15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="2">
+        <v>360.44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="2">
+        <v>646.86</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For The Week Ending (Prior Year)_PayrollHistory.xlsx
+++ b/reports/For The Week Ending (Prior Year)_PayrollHistory.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>department</t>
   </si>
@@ -73,6 +73,9 @@
     <t>D5202</t>
   </si>
   <si>
+    <t>D5203</t>
+  </si>
+  <si>
     <t>D5206</t>
   </si>
   <si>
@@ -113,6 +116,9 @@
   </si>
   <si>
     <t>D6780</t>
+  </si>
+  <si>
+    <t>D6781</t>
   </si>
   <si>
     <t>D6790</t>
@@ -499,14 +505,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -522,7 +528,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>580.08</v>
+        <v>870.12</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -530,7 +536,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>6985.53</v>
+        <v>10069.52</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -538,7 +544,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>4233.73</v>
+        <v>6378.83</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -546,7 +552,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>3492.81</v>
+        <v>5375.18</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -554,7 +560,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>1389.70</v>
+        <v>2029.11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -562,7 +568,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>3825.27</v>
+        <v>6173.47</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -570,7 +576,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>1609.87</v>
+        <v>2602.72</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -578,7 +584,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>6423.09</v>
+        <v>9971.19</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -586,7 +592,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>1580.49</v>
+        <v>2598.80</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -594,7 +600,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>7574.53</v>
+        <v>8971.01</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -602,7 +608,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>729.29</v>
+        <v>946.39</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -610,7 +616,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>1829.05</v>
+        <v>2651.46</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -618,7 +624,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>1609.05</v>
+        <v>2409.75</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -626,7 +632,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>1195.79</v>
+        <v>2054.19</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -634,7 +640,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>3106.52</v>
+        <v>4876.75</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -642,7 +648,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>1185.41</v>
+        <v>2009.73</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -650,7 +656,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="2">
-        <v>353.19</v>
+        <v>676.78</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -658,7 +664,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>906.83</v>
+        <v>161.70</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -666,7 +672,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="2">
-        <v>638.43</v>
+        <v>1639.04</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -674,7 +680,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>2601.76</v>
+        <v>985.33</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -682,7 +688,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>641.55</v>
+        <v>4808.46</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -690,7 +696,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2">
-        <v>391.76</v>
+        <v>889.98</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -698,7 +704,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="2">
-        <v>1157.02</v>
+        <v>587.64</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -706,7 +712,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="2">
-        <v>3451.45</v>
+        <v>1735.53</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -714,7 +720,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="2">
-        <v>1035.46</v>
+        <v>5111.94</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -722,7 +728,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="2">
-        <v>2938.08</v>
+        <v>1776.75</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -730,7 +736,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="2">
-        <v>709.24</v>
+        <v>4402.34</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -738,7 +744,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="2">
-        <v>761.84</v>
+        <v>1063.86</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -746,7 +752,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="2">
-        <v>344.95</v>
+        <v>1142.76</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -754,7 +760,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="2">
-        <v>1689.53</v>
+        <v>532.06</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -762,7 +768,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="2">
-        <v>2232.92</v>
+        <v>2256.59</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -770,7 +776,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="2">
-        <v>1642.67</v>
+        <v>3296.01</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -778,7 +784,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="2">
-        <v>335.99</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -786,7 +792,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="2">
-        <v>449.24</v>
+        <v>2246.86</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -794,7 +800,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="2">
-        <v>1249.22</v>
+        <v>499.18</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -802,7 +808,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="2">
-        <v>2240.76</v>
+        <v>809.17</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -810,7 +816,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="2">
-        <v>1636.15</v>
+        <v>1649.65</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -818,7 +824,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="2">
-        <v>360.44</v>
+        <v>3361.14</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -826,7 +832,23 @@
         <v>40</v>
       </c>
       <c r="B40" s="2">
-        <v>646.86</v>
+        <v>2349.94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="2">
+        <v>540.66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="2">
+        <v>819.05</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For The Week Ending (Prior Year)_PayrollHistory.xlsx
+++ b/reports/For The Week Ending (Prior Year)_PayrollHistory.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>department</t>
   </si>
@@ -52,49 +52,37 @@
     <t>D2000</t>
   </si>
   <si>
-    <t>D2200</t>
-  </si>
-  <si>
     <t>D3000</t>
   </si>
   <si>
-    <t>D4054</t>
-  </si>
-  <si>
-    <t>D4055</t>
+    <t>D3050</t>
+  </si>
+  <si>
+    <t>D4031</t>
+  </si>
+  <si>
+    <t>D4032</t>
+  </si>
+  <si>
+    <t>D4034</t>
   </si>
   <si>
     <t>D5000</t>
   </si>
   <si>
-    <t>D5201</t>
-  </si>
-  <si>
-    <t>D5202</t>
-  </si>
-  <si>
-    <t>D5203</t>
-  </si>
-  <si>
-    <t>D5206</t>
-  </si>
-  <si>
-    <t>D5207</t>
-  </si>
-  <si>
-    <t>D5208</t>
-  </si>
-  <si>
-    <t>D5209</t>
-  </si>
-  <si>
-    <t>D5810</t>
+    <t>D5110</t>
+  </si>
+  <si>
+    <t>D5111</t>
+  </si>
+  <si>
+    <t>D5112</t>
   </si>
   <si>
     <t>D5820</t>
   </si>
   <si>
-    <t>D6212</t>
+    <t>D6030</t>
   </si>
   <si>
     <t>D6215</t>
@@ -103,33 +91,30 @@
     <t>D6700</t>
   </si>
   <si>
-    <t>D6710</t>
-  </si>
-  <si>
-    <t>D6720</t>
+    <t>D6721</t>
   </si>
   <si>
     <t>D6730</t>
   </si>
   <si>
-    <t>D6750</t>
+    <t>D6740</t>
+  </si>
+  <si>
+    <t>D6760</t>
   </si>
   <si>
     <t>D6780</t>
   </si>
   <si>
-    <t>D6781</t>
-  </si>
-  <si>
     <t>D6790</t>
   </si>
   <si>
-    <t>D7000</t>
-  </si>
-  <si>
     <t>D7010</t>
   </si>
   <si>
+    <t>D8010</t>
+  </si>
+  <si>
     <t>D8020</t>
   </si>
   <si>
@@ -143,6 +128,9 @@
   </si>
   <si>
     <t>D8060</t>
+  </si>
+  <si>
+    <t>D9007</t>
   </si>
 </sst>
 </file>
@@ -505,7 +493,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +516,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>870.12</v>
+        <v>2691.81</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -536,7 +524,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>10069.52</v>
+        <v>12085.20</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -544,7 +532,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>6378.83</v>
+        <v>3818.45</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -552,7 +540,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>5375.18</v>
+        <v>6733.82</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -560,7 +548,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>2029.11</v>
+        <v>1181.22</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -568,7 +556,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>6173.47</v>
+        <v>3394.43</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -576,7 +564,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>2602.72</v>
+        <v>2016.98</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -584,7 +572,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>9971.19</v>
+        <v>6915.19</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -592,7 +580,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>2598.80</v>
+        <v>4657.20</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -600,7 +588,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>8971.01</v>
+        <v>6126.97</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -608,7 +596,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>946.39</v>
+        <v>5756.49</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -616,7 +604,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>2651.46</v>
+        <v>902.99</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -624,7 +612,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>2409.75</v>
+        <v>516.75</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -632,7 +620,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>2054.19</v>
+        <v>2928.10</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -640,7 +628,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>4876.75</v>
+        <v>544.81</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -648,7 +636,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>2009.73</v>
+        <v>2785.59</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -656,7 +644,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="2">
-        <v>676.78</v>
+        <v>2044.95</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -664,7 +652,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>161.70</v>
+        <v>4142.55</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -672,7 +660,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="2">
-        <v>1639.04</v>
+        <v>916.42</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -680,7 +668,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>985.33</v>
+        <v>443.82</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -688,7 +676,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>4808.46</v>
+        <v>1465.02</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -696,7 +684,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2">
-        <v>889.98</v>
+        <v>1223.82</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -704,7 +692,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="2">
-        <v>587.64</v>
+        <v>625.74</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -712,7 +700,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="2">
-        <v>1735.53</v>
+        <v>1315.50</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -720,7 +708,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="2">
-        <v>5111.94</v>
+        <v>1018.35</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -728,7 +716,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="2">
-        <v>1776.75</v>
+        <v>2255.64</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -736,7 +724,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="2">
-        <v>4402.34</v>
+        <v>1930.26</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -744,7 +732,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="2">
-        <v>1063.86</v>
+        <v>1098.30</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -752,7 +740,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="2">
-        <v>1142.76</v>
+        <v>811.52</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -760,7 +748,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="2">
-        <v>532.06</v>
+        <v>906.60</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -768,7 +756,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="2">
-        <v>2256.59</v>
+        <v>2793.12</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -776,7 +764,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="2">
-        <v>3296.01</v>
+        <v>2436.01</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -784,7 +772,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="2">
-        <v>108.00</v>
+        <v>2307.69</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -792,7 +780,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="2">
-        <v>2246.86</v>
+        <v>1696.66</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -800,7 +788,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="2">
-        <v>499.18</v>
+        <v>998.52</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -808,7 +796,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="2">
-        <v>809.17</v>
+        <v>2093.84</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -816,39 +804,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="2">
-        <v>1649.65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" s="2">
-        <v>3361.14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="2">
-        <v>2349.94</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="2">
-        <v>540.66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="2">
-        <v>819.05</v>
+        <v>1246.32</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For The Week Ending (Prior Year)_PayrollHistory.xlsx
+++ b/reports/For The Week Ending (Prior Year)_PayrollHistory.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>department</t>
   </si>
@@ -22,127 +22,115 @@
     <t>total</t>
   </si>
   <si>
+    <t>D8030</t>
+  </si>
+  <si>
+    <t>D1000</t>
+  </si>
+  <si>
+    <t>D4032</t>
+  </si>
+  <si>
+    <t>D6700</t>
+  </si>
+  <si>
+    <t>D6730</t>
+  </si>
+  <si>
+    <t>D7010</t>
+  </si>
+  <si>
+    <t>D2000</t>
+  </si>
+  <si>
+    <t>D4034</t>
+  </si>
+  <si>
+    <t>D8010</t>
+  </si>
+  <si>
+    <t>D8020</t>
+  </si>
+  <si>
+    <t>D1100</t>
+  </si>
+  <si>
+    <t>D3000</t>
+  </si>
+  <si>
+    <t>D5000</t>
+  </si>
+  <si>
+    <t>D5112</t>
+  </si>
+  <si>
+    <t>D6760</t>
+  </si>
+  <si>
+    <t>D6780</t>
+  </si>
+  <si>
+    <t>D8040</t>
+  </si>
+  <si>
+    <t>D1200</t>
+  </si>
+  <si>
+    <t>D5111</t>
+  </si>
+  <si>
     <t>D6215</t>
   </si>
   <si>
+    <t>D8050</t>
+  </si>
+  <si>
+    <t>D8060</t>
+  </si>
+  <si>
+    <t>D1020</t>
+  </si>
+  <si>
+    <t>D1060</t>
+  </si>
+  <si>
+    <t>D1070</t>
+  </si>
+  <si>
+    <t>D5820</t>
+  </si>
+  <si>
+    <t>D9007</t>
+  </si>
+  <si>
+    <t>D1010</t>
+  </si>
+  <si>
+    <t>D1500</t>
+  </si>
+  <si>
+    <t>D6721</t>
+  </si>
+  <si>
+    <t>D6790</t>
+  </si>
+  <si>
     <t>D1030</t>
   </si>
   <si>
-    <t>D1100</t>
-  </si>
-  <si>
-    <t>D5203</t>
-  </si>
-  <si>
-    <t>D5810</t>
-  </si>
-  <si>
-    <t>D5820</t>
-  </si>
-  <si>
-    <t>D6212</t>
-  </si>
-  <si>
-    <t>D8050</t>
-  </si>
-  <si>
-    <t>D1000</t>
-  </si>
-  <si>
-    <t>D4054</t>
-  </si>
-  <si>
-    <t>D5206</t>
-  </si>
-  <si>
-    <t>D6700</t>
-  </si>
-  <si>
-    <t>D6720</t>
-  </si>
-  <si>
-    <t>D6790</t>
-  </si>
-  <si>
-    <t>D2000</t>
-  </si>
-  <si>
-    <t>D5202</t>
-  </si>
-  <si>
-    <t>D6730</t>
-  </si>
-  <si>
-    <t>D7010</t>
-  </si>
-  <si>
-    <t>D1020</t>
-  </si>
-  <si>
-    <t>D1070</t>
-  </si>
-  <si>
-    <t>D5000</t>
-  </si>
-  <si>
-    <t>D5201</t>
-  </si>
-  <si>
-    <t>D5208</t>
-  </si>
-  <si>
-    <t>D6781</t>
-  </si>
-  <si>
-    <t>D8040</t>
-  </si>
-  <si>
-    <t>D1010</t>
-  </si>
-  <si>
-    <t>D1060</t>
-  </si>
-  <si>
-    <t>D1200</t>
-  </si>
-  <si>
-    <t>D1500</t>
-  </si>
-  <si>
-    <t>D5207</t>
-  </si>
-  <si>
-    <t>D6710</t>
-  </si>
-  <si>
-    <t>D6750</t>
-  </si>
-  <si>
-    <t>D7000</t>
-  </si>
-  <si>
-    <t>D8030</t>
-  </si>
-  <si>
-    <t>D8060</t>
-  </si>
-  <si>
-    <t>D2200</t>
-  </si>
-  <si>
-    <t>D3000</t>
-  </si>
-  <si>
-    <t>D4055</t>
-  </si>
-  <si>
-    <t>D5209</t>
-  </si>
-  <si>
-    <t>D6780</t>
-  </si>
-  <si>
-    <t>D8020</t>
+    <t>D3050</t>
+  </si>
+  <si>
+    <t>D4031</t>
+  </si>
+  <si>
+    <t>D5110</t>
+  </si>
+  <si>
+    <t>D6030</t>
+  </si>
+  <si>
+    <t>D6740</t>
   </si>
 </sst>
 </file>
@@ -505,7 +493,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +516,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>2215.31</v>
+        <v>3076.92</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -536,7 +524,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>7560.27</v>
+        <v>3589.08</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -544,7 +532,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>3535.19</v>
+        <v>3324.73</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -552,7 +540,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>401.24</v>
+        <v>834.32</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -560,7 +548,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>783.52</v>
+        <v>1188.68</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -568,7 +556,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>2314.04</v>
+        <v>1208.80</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -576,7 +564,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>7132.99</v>
+        <v>8610.88</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -584,7 +572,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>720.88</v>
+        <v>685.29</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -592,7 +580,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>1160.16</v>
+        <v>3724.16</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -600,7 +588,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>3743.69</v>
+        <v>3184.45</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -608,7 +596,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>1639.04</v>
+        <v>2493.17</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -616,7 +604,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>5853.21</v>
+        <v>7363.02</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -624,7 +612,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>1523.68</v>
+        <v>3714.12</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -632,7 +620,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>2819.84</v>
+        <v>1294.28</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -640,7 +628,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>9918.90</v>
+        <v>2537.59</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -648,7 +636,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>1642.63</v>
+        <v>1098.30</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -656,7 +644,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="2">
-        <v>715.21</v>
+        <v>2032.84</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -664,7 +652,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>1154.56</v>
+        <v>9501.22</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -672,7 +660,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="2">
-        <v>8406.02</v>
+        <v>4994.70</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -680,7 +668,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>8575.92</v>
+        <v>1537.19</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -688,7 +676,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>6589.91</v>
+        <v>1207.10</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -696,7 +684,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2">
-        <v>2689.01</v>
+        <v>2923.50</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -704,7 +692,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="2">
-        <v>7103.19</v>
+        <v>5096.57</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -712,7 +700,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="2">
-        <v>108.00</v>
+        <v>1711.59</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -720,7 +708,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="2">
-        <v>3232.69</v>
+        <v>4095.96</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -728,7 +716,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="2">
-        <v>14017.30</v>
+        <v>490.32</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -736,7 +724,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="2">
-        <v>2608.31</v>
+        <v>1246.32</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -744,7 +732,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="2">
-        <v>13455.35</v>
+        <v>15990.13</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -752,7 +740,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="2">
-        <v>3597.56</v>
+        <v>5929.99</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -760,7 +748,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="2">
-        <v>1141.78</v>
+        <v>1519.22</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -768,7 +756,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="2">
-        <v>1418.48</v>
+        <v>1291.81</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -776,7 +764,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="2">
-        <v>2835.97</v>
+        <v>9949.75</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -784,7 +772,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="2">
-        <v>625.56</v>
+        <v>1219.27</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -792,7 +780,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="2">
-        <v>4481.52</v>
+        <v>675.75</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -800,7 +788,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="2">
-        <v>991.24</v>
+        <v>3265.67</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -808,7 +796,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="2">
-        <v>1316.68</v>
+        <v>2079.10</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -816,39 +804,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="2">
-        <v>3637.18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" s="2">
-        <v>2684.96</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="2">
-        <v>1175.34</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="2">
-        <v>4303.54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="2">
-        <v>2250.68</v>
+        <v>2888.59</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For The Week Ending (Prior Year)_PayrollHistory.xlsx
+++ b/reports/For The Week Ending (Prior Year)_PayrollHistory.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>department</t>
   </si>
@@ -22,115 +22,130 @@
     <t>total</t>
   </si>
   <si>
+    <t>D6215</t>
+  </si>
+  <si>
+    <t>D2200</t>
+  </si>
+  <si>
+    <t>D3000</t>
+  </si>
+  <si>
+    <t>D4055</t>
+  </si>
+  <si>
+    <t>D5209</t>
+  </si>
+  <si>
+    <t>D6780</t>
+  </si>
+  <si>
+    <t>D8020</t>
+  </si>
+  <si>
+    <t>D1030</t>
+  </si>
+  <si>
+    <t>D1100</t>
+  </si>
+  <si>
+    <t>D5203</t>
+  </si>
+  <si>
+    <t>D5810</t>
+  </si>
+  <si>
+    <t>D1000</t>
+  </si>
+  <si>
+    <t>D4054</t>
+  </si>
+  <si>
+    <t>D5206</t>
+  </si>
+  <si>
+    <t>D6700</t>
+  </si>
+  <si>
+    <t>D6720</t>
+  </si>
+  <si>
+    <t>D6790</t>
+  </si>
+  <si>
+    <t>D5820</t>
+  </si>
+  <si>
+    <t>D6212</t>
+  </si>
+  <si>
+    <t>D8050</t>
+  </si>
+  <si>
+    <t>D2000</t>
+  </si>
+  <si>
+    <t>D5202</t>
+  </si>
+  <si>
+    <t>D6730</t>
+  </si>
+  <si>
+    <t>D7010</t>
+  </si>
+  <si>
+    <t>D1020</t>
+  </si>
+  <si>
+    <t>D1070</t>
+  </si>
+  <si>
+    <t>D5000</t>
+  </si>
+  <si>
+    <t>D5201</t>
+  </si>
+  <si>
+    <t>D5208</t>
+  </si>
+  <si>
+    <t>D6781</t>
+  </si>
+  <si>
+    <t>D8040</t>
+  </si>
+  <si>
+    <t>D1010</t>
+  </si>
+  <si>
+    <t>D1060</t>
+  </si>
+  <si>
+    <t>D1200</t>
+  </si>
+  <si>
+    <t>D1500</t>
+  </si>
+  <si>
+    <t>D5205</t>
+  </si>
+  <si>
+    <t>D5207</t>
+  </si>
+  <si>
+    <t>D6710</t>
+  </si>
+  <si>
+    <t>D6750</t>
+  </si>
+  <si>
+    <t>D7000</t>
+  </si>
+  <si>
     <t>D8030</t>
   </si>
   <si>
-    <t>D1000</t>
-  </si>
-  <si>
-    <t>D4032</t>
-  </si>
-  <si>
-    <t>D6700</t>
-  </si>
-  <si>
-    <t>D6730</t>
-  </si>
-  <si>
-    <t>D7010</t>
-  </si>
-  <si>
-    <t>D2000</t>
-  </si>
-  <si>
-    <t>D4034</t>
-  </si>
-  <si>
-    <t>D8010</t>
-  </si>
-  <si>
-    <t>D8020</t>
-  </si>
-  <si>
-    <t>D1100</t>
-  </si>
-  <si>
-    <t>D3000</t>
-  </si>
-  <si>
-    <t>D5000</t>
-  </si>
-  <si>
-    <t>D5112</t>
-  </si>
-  <si>
-    <t>D6760</t>
-  </si>
-  <si>
-    <t>D6780</t>
-  </si>
-  <si>
-    <t>D8040</t>
-  </si>
-  <si>
-    <t>D1200</t>
-  </si>
-  <si>
-    <t>D5111</t>
-  </si>
-  <si>
-    <t>D6215</t>
-  </si>
-  <si>
-    <t>D8050</t>
-  </si>
-  <si>
     <t>D8060</t>
-  </si>
-  <si>
-    <t>D1020</t>
-  </si>
-  <si>
-    <t>D1060</t>
-  </si>
-  <si>
-    <t>D1070</t>
-  </si>
-  <si>
-    <t>D5820</t>
-  </si>
-  <si>
-    <t>D9007</t>
-  </si>
-  <si>
-    <t>D1010</t>
-  </si>
-  <si>
-    <t>D1500</t>
-  </si>
-  <si>
-    <t>D6721</t>
-  </si>
-  <si>
-    <t>D6790</t>
-  </si>
-  <si>
-    <t>D1030</t>
-  </si>
-  <si>
-    <t>D3050</t>
-  </si>
-  <si>
-    <t>D4031</t>
-  </si>
-  <si>
-    <t>D5110</t>
-  </si>
-  <si>
-    <t>D6030</t>
-  </si>
-  <si>
-    <t>D6740</t>
   </si>
 </sst>
 </file>
@@ -493,7 +508,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,7 +531,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>3076.92</v>
+        <v>3672.83</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -524,7 +539,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>3589.08</v>
+        <v>2230.60</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -532,7 +547,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>3324.73</v>
+        <v>7378.98</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -540,7 +555,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>834.32</v>
+        <v>4201.04</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -548,7 +563,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>1188.68</v>
+        <v>2176.62</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -556,7 +571,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>1208.80</v>
+        <v>9156.51</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -564,7 +579,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>8610.88</v>
+        <v>4043.79</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -572,7 +587,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>685.29</v>
+        <v>13592.65</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -580,7 +595,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>3724.16</v>
+        <v>6638.96</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -588,7 +603,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>3184.45</v>
+        <v>523.34</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -596,7 +611,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>2493.17</v>
+        <v>1572.46</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -604,7 +619,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>7363.02</v>
+        <v>2030.28</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -612,7 +627,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>3714.12</v>
+        <v>6433.39</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -620,7 +635,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>1294.28</v>
+        <v>2803.55</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -628,7 +643,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>2537.59</v>
+        <v>9925.42</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -636,7 +651,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>1098.30</v>
+        <v>2666.44</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -644,7 +659,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="2">
-        <v>2032.84</v>
+        <v>5047.21</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -652,7 +667,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>9501.22</v>
+        <v>4049.57</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -660,7 +675,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="2">
-        <v>4994.70</v>
+        <v>12634.78</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -668,7 +683,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>1537.19</v>
+        <v>1351.66</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -676,7 +691,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>1207.10</v>
+        <v>26859.76</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -684,7 +699,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2">
-        <v>2923.50</v>
+        <v>4071.03</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -692,7 +707,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="2">
-        <v>5096.57</v>
+        <v>1226.45</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -700,7 +715,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="2">
-        <v>1711.59</v>
+        <v>2467.39</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -708,7 +723,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="2">
-        <v>4095.96</v>
+        <v>14650.49</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -716,7 +731,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="2">
-        <v>490.32</v>
+        <v>13743.24</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -724,7 +739,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="2">
-        <v>1246.32</v>
+        <v>11435.91</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -732,7 +747,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="2">
-        <v>15990.13</v>
+        <v>4876.18</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -740,7 +755,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="2">
-        <v>5929.99</v>
+        <v>14279.24</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -748,7 +763,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="2">
-        <v>1519.22</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -756,7 +771,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="2">
-        <v>1291.81</v>
+        <v>5509.43</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -764,7 +779,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="2">
-        <v>9949.75</v>
+        <v>27718.37</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -772,7 +787,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="2">
-        <v>1219.27</v>
+        <v>4672.04</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -780,7 +795,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="2">
-        <v>675.75</v>
+        <v>27135.14</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -788,7 +803,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="2">
-        <v>3265.67</v>
+        <v>6774.09</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -796,7 +811,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="2">
-        <v>2079.10</v>
+        <v>461.55</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -804,7 +819,47 @@
         <v>38</v>
       </c>
       <c r="B38" s="2">
-        <v>2888.59</v>
+        <v>2275.34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="2">
+        <v>2482.34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="2">
+        <v>5055.35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="2">
+        <v>625.56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="2">
+        <v>7885.92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="2">
+        <v>1969.89</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For The Week Ending (Prior Year)_PayrollHistory.xlsx
+++ b/reports/For The Week Ending (Prior Year)_PayrollHistory.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>department</t>
   </si>
@@ -22,130 +22,121 @@
     <t>total</t>
   </si>
   <si>
+    <t>D8030</t>
+  </si>
+  <si>
+    <t>D1020</t>
+  </si>
+  <si>
+    <t>D1060</t>
+  </si>
+  <si>
+    <t>D1070</t>
+  </si>
+  <si>
+    <t>D5820</t>
+  </si>
+  <si>
+    <t>D9007</t>
+  </si>
+  <si>
+    <t>D2000</t>
+  </si>
+  <si>
+    <t>D4034</t>
+  </si>
+  <si>
+    <t>D8010</t>
+  </si>
+  <si>
+    <t>D8020</t>
+  </si>
+  <si>
+    <t>D1030</t>
+  </si>
+  <si>
+    <t>D3050</t>
+  </si>
+  <si>
+    <t>D4031</t>
+  </si>
+  <si>
+    <t>D5110</t>
+  </si>
+  <si>
+    <t>D5810</t>
+  </si>
+  <si>
+    <t>D6030</t>
+  </si>
+  <si>
+    <t>D6740</t>
+  </si>
+  <si>
+    <t>D6781</t>
+  </si>
+  <si>
+    <t>D1000</t>
+  </si>
+  <si>
+    <t>D4032</t>
+  </si>
+  <si>
+    <t>D6700</t>
+  </si>
+  <si>
+    <t>D6730</t>
+  </si>
+  <si>
+    <t>D7010</t>
+  </si>
+  <si>
+    <t>D1010</t>
+  </si>
+  <si>
+    <t>D1500</t>
+  </si>
+  <si>
+    <t>D6721</t>
+  </si>
+  <si>
+    <t>D6790</t>
+  </si>
+  <si>
+    <t>D1200</t>
+  </si>
+  <si>
+    <t>D5111</t>
+  </si>
+  <si>
     <t>D6215</t>
   </si>
   <si>
-    <t>D2200</t>
+    <t>D8050</t>
+  </si>
+  <si>
+    <t>D8060</t>
+  </si>
+  <si>
+    <t>D1100</t>
   </si>
   <si>
     <t>D3000</t>
   </si>
   <si>
-    <t>D4055</t>
-  </si>
-  <si>
-    <t>D5209</t>
+    <t>D5000</t>
+  </si>
+  <si>
+    <t>D5112</t>
+  </si>
+  <si>
+    <t>D6760</t>
   </si>
   <si>
     <t>D6780</t>
   </si>
   <si>
-    <t>D8020</t>
-  </si>
-  <si>
-    <t>D1030</t>
-  </si>
-  <si>
-    <t>D1100</t>
-  </si>
-  <si>
-    <t>D5203</t>
-  </si>
-  <si>
-    <t>D5810</t>
-  </si>
-  <si>
-    <t>D1000</t>
-  </si>
-  <si>
-    <t>D4054</t>
-  </si>
-  <si>
-    <t>D5206</t>
-  </si>
-  <si>
-    <t>D6700</t>
-  </si>
-  <si>
-    <t>D6720</t>
-  </si>
-  <si>
-    <t>D6790</t>
-  </si>
-  <si>
-    <t>D5820</t>
-  </si>
-  <si>
-    <t>D6212</t>
-  </si>
-  <si>
-    <t>D8050</t>
-  </si>
-  <si>
-    <t>D2000</t>
-  </si>
-  <si>
-    <t>D5202</t>
-  </si>
-  <si>
-    <t>D6730</t>
-  </si>
-  <si>
-    <t>D7010</t>
-  </si>
-  <si>
-    <t>D1020</t>
-  </si>
-  <si>
-    <t>D1070</t>
-  </si>
-  <si>
-    <t>D5000</t>
-  </si>
-  <si>
-    <t>D5201</t>
-  </si>
-  <si>
-    <t>D5208</t>
-  </si>
-  <si>
-    <t>D6781</t>
-  </si>
-  <si>
     <t>D8040</t>
-  </si>
-  <si>
-    <t>D1010</t>
-  </si>
-  <si>
-    <t>D1060</t>
-  </si>
-  <si>
-    <t>D1200</t>
-  </si>
-  <si>
-    <t>D1500</t>
-  </si>
-  <si>
-    <t>D5205</t>
-  </si>
-  <si>
-    <t>D5207</t>
-  </si>
-  <si>
-    <t>D6710</t>
-  </si>
-  <si>
-    <t>D6750</t>
-  </si>
-  <si>
-    <t>D7000</t>
-  </si>
-  <si>
-    <t>D8030</t>
-  </si>
-  <si>
-    <t>D8060</t>
   </si>
 </sst>
 </file>
@@ -508,7 +499,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +522,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>3672.83</v>
+        <v>5384.61</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -539,7 +530,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>2230.60</v>
+        <v>9294.83</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -547,7 +538,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>7378.98</v>
+        <v>3304.92</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -555,7 +546,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>4201.04</v>
+        <v>6620.64</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -563,7 +554,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>2176.62</v>
+        <v>2182.26</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -571,7 +562,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>9156.51</v>
+        <v>1451.83</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -579,7 +570,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>4043.79</v>
+        <v>21937.29</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -587,7 +578,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>13592.65</v>
+        <v>1141.89</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -595,7 +586,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>6638.96</v>
+        <v>6517.28</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -603,7 +594,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>523.34</v>
+        <v>5173.00</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -611,7 +602,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>1572.46</v>
+        <v>15807.69</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -619,7 +610,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>2030.28</v>
+        <v>2588.76</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -627,7 +618,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>6433.39</v>
+        <v>1201.83</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -635,7 +626,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>2803.55</v>
+        <v>7620.05</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -643,7 +634,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>9925.42</v>
+        <v>216.21</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -651,7 +642,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>2666.44</v>
+        <v>3853.99</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -659,7 +650,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="2">
-        <v>5047.21</v>
+        <v>4892.70</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -667,7 +658,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>4049.57</v>
+        <v>118.27</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -675,7 +666,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="2">
-        <v>12634.78</v>
+        <v>6280.89</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -683,7 +674,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>1351.66</v>
+        <v>5626.78</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -691,7 +682,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>26859.76</v>
+        <v>1460.06</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -699,7 +690,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2">
-        <v>4071.03</v>
+        <v>2103.67</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -707,7 +698,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="2">
-        <v>1226.45</v>
+        <v>2115.40</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -715,7 +706,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="2">
-        <v>2467.39</v>
+        <v>29452.57</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -723,7 +714,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="2">
-        <v>14650.49</v>
+        <v>12292.97</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -731,7 +722,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="2">
-        <v>13743.24</v>
+        <v>3578.58</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -739,7 +730,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="2">
-        <v>11435.91</v>
+        <v>3193.65</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -747,7 +738,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="2">
-        <v>4876.18</v>
+        <v>19228.69</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -755,7 +746,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="2">
-        <v>14279.24</v>
+        <v>13392.66</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -763,7 +754,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="2">
-        <v>108.00</v>
+        <v>2868.39</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -771,7 +762,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="2">
-        <v>5509.43</v>
+        <v>2030.13</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -779,7 +770,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="2">
-        <v>27718.37</v>
+        <v>5327.33</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -787,7 +778,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="2">
-        <v>4672.04</v>
+        <v>4298.55</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -795,7 +786,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="2">
-        <v>27135.14</v>
+        <v>14433.29</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -803,7 +794,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="2">
-        <v>6774.09</v>
+        <v>6499.71</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -811,7 +802,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="2">
-        <v>461.55</v>
+        <v>2520.70</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -819,7 +810,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="2">
-        <v>2275.34</v>
+        <v>4523.28</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -827,7 +818,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="2">
-        <v>2482.34</v>
+        <v>2113.08</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -835,31 +826,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="2">
-        <v>5055.35</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="2">
-        <v>625.56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="2">
-        <v>7885.92</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" s="2">
-        <v>1969.89</v>
+        <v>3940.52</v>
       </c>
     </row>
   </sheetData>
